--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL G15\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL G15\Desktop\WeeFizz\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB855255-4FBB-4D45-AB9C-987921C51A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0563E2B-ADC1-4F75-ACBF-51B5BEDCCBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{402097F7-870A-4E17-8FDC-25C236478C36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3DD8B9E-0B53-42F6-8156-251C087DD7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -45,136 +45,40 @@
     <t>gender</t>
   </si>
   <si>
+    <t>C:\Users\DELL G15\Downloads\files\0\front_img</t>
+  </si>
+  <si>
+    <t>C:\Users\DELL G15\Downloads\files\0\side_img</t>
+  </si>
+  <si>
     <t>female</t>
   </si>
   <si>
+    <t>C:\Users\DELL G15\Downloads\files\1\front_img</t>
+  </si>
+  <si>
+    <t>C:\Users\DELL G15\Downloads\files\1\side_img</t>
+  </si>
+  <si>
+    <t>C:\Users\DELL G15\Downloads\files\2\front_img</t>
+  </si>
+  <si>
+    <t>C:\Users\DELL G15\Downloads\files\2\side_img</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
-    <t>C:\Users\DELL G15\Downloads\files\0\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\1\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\2\front_img</t>
-  </si>
-  <si>
     <t>C:\Users\DELL G15\Downloads\files\3\front_img</t>
   </si>
   <si>
+    <t>C:\Users\DELL G15\Downloads\files\3\side_img</t>
+  </si>
+  <si>
     <t>C:\Users\DELL G15\Downloads\files\4\front_img</t>
   </si>
   <si>
-    <t>C:\Users\DELL G15\Downloads\files\5\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\6\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\7\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\8\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\9\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\10\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\11\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\12\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\13\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\14\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\15\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\16\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\17\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\18\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\19\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\20\front_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\0\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\1\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\2\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\3\side_img</t>
-  </si>
-  <si>
     <t>C:\Users\DELL G15\Downloads\files\4\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\5\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\6\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\7\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\8\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\9\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\10\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\11\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\12\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\13\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\14\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\15\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\16\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\17\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\18\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\19\side_img</t>
-  </si>
-  <si>
-    <t>C:\Users\DELL G15\Downloads\files\20\side_img</t>
   </si>
 </sst>
 </file>
@@ -547,17 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421190CF-6964-4B39-8370-717A215A2DC1}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F78B73-2221-42C0-8C76-BBB57B01A870}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="5" width="40.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -590,13 +491,13 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -613,10 +514,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -630,13 +531,13 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -650,13 +551,13 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -670,333 +571,13 @@
         <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>159</v>
-      </c>
-      <c r="C7">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>155</v>
-      </c>
-      <c r="C8">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>161</v>
-      </c>
-      <c r="C9">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>167</v>
-      </c>
-      <c r="C10">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>165</v>
-      </c>
-      <c r="C11">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>163</v>
-      </c>
-      <c r="C12">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>163</v>
-      </c>
-      <c r="C13">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>165</v>
-      </c>
-      <c r="C14">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>155</v>
-      </c>
-      <c r="C15">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>172</v>
-      </c>
-      <c r="C16">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>168</v>
-      </c>
-      <c r="C17">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>175</v>
-      </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>170</v>
-      </c>
-      <c r="C19">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>190</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>176</v>
-      </c>
-      <c r="C21">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>172</v>
-      </c>
-      <c r="C22">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
